--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>1、已登陆管理员账号                                                   2、系统正常               3、网络正常                    4、至少有一个任意分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制信息配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -582,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1051,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
@@ -1082,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
@@ -1113,7 +1109,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
@@ -1144,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -1161,9 +1157,7 @@
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="6"/>
@@ -1303,19 +1297,6 @@
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>APP、H5、web、admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +155,14 @@
   </si>
   <si>
     <t>测试需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin系统管理-分组管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -253,6 +257,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -265,9 +293,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -277,14 +302,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -296,6 +315,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,428 +610,428 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.21875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="50" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="8" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10" style="12"/>
-    <col min="12" max="256" width="10" style="8"/>
-    <col min="257" max="257" width="14" style="8" customWidth="1"/>
-    <col min="258" max="259" width="14.109375" style="8" customWidth="1"/>
-    <col min="260" max="260" width="16.33203125" style="8" customWidth="1"/>
-    <col min="261" max="261" width="10" style="8"/>
-    <col min="262" max="262" width="50" style="8" customWidth="1"/>
-    <col min="263" max="512" width="10" style="8"/>
-    <col min="513" max="513" width="14" style="8" customWidth="1"/>
-    <col min="514" max="515" width="14.109375" style="8" customWidth="1"/>
-    <col min="516" max="516" width="16.33203125" style="8" customWidth="1"/>
-    <col min="517" max="517" width="10" style="8"/>
-    <col min="518" max="518" width="50" style="8" customWidth="1"/>
-    <col min="519" max="768" width="10" style="8"/>
-    <col min="769" max="769" width="14" style="8" customWidth="1"/>
-    <col min="770" max="771" width="14.109375" style="8" customWidth="1"/>
-    <col min="772" max="772" width="16.33203125" style="8" customWidth="1"/>
-    <col min="773" max="773" width="10" style="8"/>
-    <col min="774" max="774" width="50" style="8" customWidth="1"/>
-    <col min="775" max="1024" width="10" style="8"/>
-    <col min="1025" max="1025" width="14" style="8" customWidth="1"/>
-    <col min="1026" max="1027" width="14.109375" style="8" customWidth="1"/>
-    <col min="1028" max="1028" width="16.33203125" style="8" customWidth="1"/>
-    <col min="1029" max="1029" width="10" style="8"/>
-    <col min="1030" max="1030" width="50" style="8" customWidth="1"/>
-    <col min="1031" max="1280" width="10" style="8"/>
-    <col min="1281" max="1281" width="14" style="8" customWidth="1"/>
-    <col min="1282" max="1283" width="14.109375" style="8" customWidth="1"/>
-    <col min="1284" max="1284" width="16.33203125" style="8" customWidth="1"/>
-    <col min="1285" max="1285" width="10" style="8"/>
-    <col min="1286" max="1286" width="50" style="8" customWidth="1"/>
-    <col min="1287" max="1536" width="10" style="8"/>
-    <col min="1537" max="1537" width="14" style="8" customWidth="1"/>
-    <col min="1538" max="1539" width="14.109375" style="8" customWidth="1"/>
-    <col min="1540" max="1540" width="16.33203125" style="8" customWidth="1"/>
-    <col min="1541" max="1541" width="10" style="8"/>
-    <col min="1542" max="1542" width="50" style="8" customWidth="1"/>
-    <col min="1543" max="1792" width="10" style="8"/>
-    <col min="1793" max="1793" width="14" style="8" customWidth="1"/>
-    <col min="1794" max="1795" width="14.109375" style="8" customWidth="1"/>
-    <col min="1796" max="1796" width="16.33203125" style="8" customWidth="1"/>
-    <col min="1797" max="1797" width="10" style="8"/>
-    <col min="1798" max="1798" width="50" style="8" customWidth="1"/>
-    <col min="1799" max="2048" width="10" style="8"/>
-    <col min="2049" max="2049" width="14" style="8" customWidth="1"/>
-    <col min="2050" max="2051" width="14.109375" style="8" customWidth="1"/>
-    <col min="2052" max="2052" width="16.33203125" style="8" customWidth="1"/>
-    <col min="2053" max="2053" width="10" style="8"/>
-    <col min="2054" max="2054" width="50" style="8" customWidth="1"/>
-    <col min="2055" max="2304" width="10" style="8"/>
-    <col min="2305" max="2305" width="14" style="8" customWidth="1"/>
-    <col min="2306" max="2307" width="14.109375" style="8" customWidth="1"/>
-    <col min="2308" max="2308" width="16.33203125" style="8" customWidth="1"/>
-    <col min="2309" max="2309" width="10" style="8"/>
-    <col min="2310" max="2310" width="50" style="8" customWidth="1"/>
-    <col min="2311" max="2560" width="10" style="8"/>
-    <col min="2561" max="2561" width="14" style="8" customWidth="1"/>
-    <col min="2562" max="2563" width="14.109375" style="8" customWidth="1"/>
-    <col min="2564" max="2564" width="16.33203125" style="8" customWidth="1"/>
-    <col min="2565" max="2565" width="10" style="8"/>
-    <col min="2566" max="2566" width="50" style="8" customWidth="1"/>
-    <col min="2567" max="2816" width="10" style="8"/>
-    <col min="2817" max="2817" width="14" style="8" customWidth="1"/>
-    <col min="2818" max="2819" width="14.109375" style="8" customWidth="1"/>
-    <col min="2820" max="2820" width="16.33203125" style="8" customWidth="1"/>
-    <col min="2821" max="2821" width="10" style="8"/>
-    <col min="2822" max="2822" width="50" style="8" customWidth="1"/>
-    <col min="2823" max="3072" width="10" style="8"/>
-    <col min="3073" max="3073" width="14" style="8" customWidth="1"/>
-    <col min="3074" max="3075" width="14.109375" style="8" customWidth="1"/>
-    <col min="3076" max="3076" width="16.33203125" style="8" customWidth="1"/>
-    <col min="3077" max="3077" width="10" style="8"/>
-    <col min="3078" max="3078" width="50" style="8" customWidth="1"/>
-    <col min="3079" max="3328" width="10" style="8"/>
-    <col min="3329" max="3329" width="14" style="8" customWidth="1"/>
-    <col min="3330" max="3331" width="14.109375" style="8" customWidth="1"/>
-    <col min="3332" max="3332" width="16.33203125" style="8" customWidth="1"/>
-    <col min="3333" max="3333" width="10" style="8"/>
-    <col min="3334" max="3334" width="50" style="8" customWidth="1"/>
-    <col min="3335" max="3584" width="10" style="8"/>
-    <col min="3585" max="3585" width="14" style="8" customWidth="1"/>
-    <col min="3586" max="3587" width="14.109375" style="8" customWidth="1"/>
-    <col min="3588" max="3588" width="16.33203125" style="8" customWidth="1"/>
-    <col min="3589" max="3589" width="10" style="8"/>
-    <col min="3590" max="3590" width="50" style="8" customWidth="1"/>
-    <col min="3591" max="3840" width="10" style="8"/>
-    <col min="3841" max="3841" width="14" style="8" customWidth="1"/>
-    <col min="3842" max="3843" width="14.109375" style="8" customWidth="1"/>
-    <col min="3844" max="3844" width="16.33203125" style="8" customWidth="1"/>
-    <col min="3845" max="3845" width="10" style="8"/>
-    <col min="3846" max="3846" width="50" style="8" customWidth="1"/>
-    <col min="3847" max="4096" width="10" style="8"/>
-    <col min="4097" max="4097" width="14" style="8" customWidth="1"/>
-    <col min="4098" max="4099" width="14.109375" style="8" customWidth="1"/>
-    <col min="4100" max="4100" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4101" max="4101" width="10" style="8"/>
-    <col min="4102" max="4102" width="50" style="8" customWidth="1"/>
-    <col min="4103" max="4352" width="10" style="8"/>
-    <col min="4353" max="4353" width="14" style="8" customWidth="1"/>
-    <col min="4354" max="4355" width="14.109375" style="8" customWidth="1"/>
-    <col min="4356" max="4356" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4357" max="4357" width="10" style="8"/>
-    <col min="4358" max="4358" width="50" style="8" customWidth="1"/>
-    <col min="4359" max="4608" width="10" style="8"/>
-    <col min="4609" max="4609" width="14" style="8" customWidth="1"/>
-    <col min="4610" max="4611" width="14.109375" style="8" customWidth="1"/>
-    <col min="4612" max="4612" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4613" max="4613" width="10" style="8"/>
-    <col min="4614" max="4614" width="50" style="8" customWidth="1"/>
-    <col min="4615" max="4864" width="10" style="8"/>
-    <col min="4865" max="4865" width="14" style="8" customWidth="1"/>
-    <col min="4866" max="4867" width="14.109375" style="8" customWidth="1"/>
-    <col min="4868" max="4868" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4869" max="4869" width="10" style="8"/>
-    <col min="4870" max="4870" width="50" style="8" customWidth="1"/>
-    <col min="4871" max="5120" width="10" style="8"/>
-    <col min="5121" max="5121" width="14" style="8" customWidth="1"/>
-    <col min="5122" max="5123" width="14.109375" style="8" customWidth="1"/>
-    <col min="5124" max="5124" width="16.33203125" style="8" customWidth="1"/>
-    <col min="5125" max="5125" width="10" style="8"/>
-    <col min="5126" max="5126" width="50" style="8" customWidth="1"/>
-    <col min="5127" max="5376" width="10" style="8"/>
-    <col min="5377" max="5377" width="14" style="8" customWidth="1"/>
-    <col min="5378" max="5379" width="14.109375" style="8" customWidth="1"/>
-    <col min="5380" max="5380" width="16.33203125" style="8" customWidth="1"/>
-    <col min="5381" max="5381" width="10" style="8"/>
-    <col min="5382" max="5382" width="50" style="8" customWidth="1"/>
-    <col min="5383" max="5632" width="10" style="8"/>
-    <col min="5633" max="5633" width="14" style="8" customWidth="1"/>
-    <col min="5634" max="5635" width="14.109375" style="8" customWidth="1"/>
-    <col min="5636" max="5636" width="16.33203125" style="8" customWidth="1"/>
-    <col min="5637" max="5637" width="10" style="8"/>
-    <col min="5638" max="5638" width="50" style="8" customWidth="1"/>
-    <col min="5639" max="5888" width="10" style="8"/>
-    <col min="5889" max="5889" width="14" style="8" customWidth="1"/>
-    <col min="5890" max="5891" width="14.109375" style="8" customWidth="1"/>
-    <col min="5892" max="5892" width="16.33203125" style="8" customWidth="1"/>
-    <col min="5893" max="5893" width="10" style="8"/>
-    <col min="5894" max="5894" width="50" style="8" customWidth="1"/>
-    <col min="5895" max="6144" width="10" style="8"/>
-    <col min="6145" max="6145" width="14" style="8" customWidth="1"/>
-    <col min="6146" max="6147" width="14.109375" style="8" customWidth="1"/>
-    <col min="6148" max="6148" width="16.33203125" style="8" customWidth="1"/>
-    <col min="6149" max="6149" width="10" style="8"/>
-    <col min="6150" max="6150" width="50" style="8" customWidth="1"/>
-    <col min="6151" max="6400" width="10" style="8"/>
-    <col min="6401" max="6401" width="14" style="8" customWidth="1"/>
-    <col min="6402" max="6403" width="14.109375" style="8" customWidth="1"/>
-    <col min="6404" max="6404" width="16.33203125" style="8" customWidth="1"/>
-    <col min="6405" max="6405" width="10" style="8"/>
-    <col min="6406" max="6406" width="50" style="8" customWidth="1"/>
-    <col min="6407" max="6656" width="10" style="8"/>
-    <col min="6657" max="6657" width="14" style="8" customWidth="1"/>
-    <col min="6658" max="6659" width="14.109375" style="8" customWidth="1"/>
-    <col min="6660" max="6660" width="16.33203125" style="8" customWidth="1"/>
-    <col min="6661" max="6661" width="10" style="8"/>
-    <col min="6662" max="6662" width="50" style="8" customWidth="1"/>
-    <col min="6663" max="6912" width="10" style="8"/>
-    <col min="6913" max="6913" width="14" style="8" customWidth="1"/>
-    <col min="6914" max="6915" width="14.109375" style="8" customWidth="1"/>
-    <col min="6916" max="6916" width="16.33203125" style="8" customWidth="1"/>
-    <col min="6917" max="6917" width="10" style="8"/>
-    <col min="6918" max="6918" width="50" style="8" customWidth="1"/>
-    <col min="6919" max="7168" width="10" style="8"/>
-    <col min="7169" max="7169" width="14" style="8" customWidth="1"/>
-    <col min="7170" max="7171" width="14.109375" style="8" customWidth="1"/>
-    <col min="7172" max="7172" width="16.33203125" style="8" customWidth="1"/>
-    <col min="7173" max="7173" width="10" style="8"/>
-    <col min="7174" max="7174" width="50" style="8" customWidth="1"/>
-    <col min="7175" max="7424" width="10" style="8"/>
-    <col min="7425" max="7425" width="14" style="8" customWidth="1"/>
-    <col min="7426" max="7427" width="14.109375" style="8" customWidth="1"/>
-    <col min="7428" max="7428" width="16.33203125" style="8" customWidth="1"/>
-    <col min="7429" max="7429" width="10" style="8"/>
-    <col min="7430" max="7430" width="50" style="8" customWidth="1"/>
-    <col min="7431" max="7680" width="10" style="8"/>
-    <col min="7681" max="7681" width="14" style="8" customWidth="1"/>
-    <col min="7682" max="7683" width="14.109375" style="8" customWidth="1"/>
-    <col min="7684" max="7684" width="16.33203125" style="8" customWidth="1"/>
-    <col min="7685" max="7685" width="10" style="8"/>
-    <col min="7686" max="7686" width="50" style="8" customWidth="1"/>
-    <col min="7687" max="7936" width="10" style="8"/>
-    <col min="7937" max="7937" width="14" style="8" customWidth="1"/>
-    <col min="7938" max="7939" width="14.109375" style="8" customWidth="1"/>
-    <col min="7940" max="7940" width="16.33203125" style="8" customWidth="1"/>
-    <col min="7941" max="7941" width="10" style="8"/>
-    <col min="7942" max="7942" width="50" style="8" customWidth="1"/>
-    <col min="7943" max="8192" width="10" style="8"/>
-    <col min="8193" max="8193" width="14" style="8" customWidth="1"/>
-    <col min="8194" max="8195" width="14.109375" style="8" customWidth="1"/>
-    <col min="8196" max="8196" width="16.33203125" style="8" customWidth="1"/>
-    <col min="8197" max="8197" width="10" style="8"/>
-    <col min="8198" max="8198" width="50" style="8" customWidth="1"/>
-    <col min="8199" max="8448" width="10" style="8"/>
-    <col min="8449" max="8449" width="14" style="8" customWidth="1"/>
-    <col min="8450" max="8451" width="14.109375" style="8" customWidth="1"/>
-    <col min="8452" max="8452" width="16.33203125" style="8" customWidth="1"/>
-    <col min="8453" max="8453" width="10" style="8"/>
-    <col min="8454" max="8454" width="50" style="8" customWidth="1"/>
-    <col min="8455" max="8704" width="10" style="8"/>
-    <col min="8705" max="8705" width="14" style="8" customWidth="1"/>
-    <col min="8706" max="8707" width="14.109375" style="8" customWidth="1"/>
-    <col min="8708" max="8708" width="16.33203125" style="8" customWidth="1"/>
-    <col min="8709" max="8709" width="10" style="8"/>
-    <col min="8710" max="8710" width="50" style="8" customWidth="1"/>
-    <col min="8711" max="8960" width="10" style="8"/>
-    <col min="8961" max="8961" width="14" style="8" customWidth="1"/>
-    <col min="8962" max="8963" width="14.109375" style="8" customWidth="1"/>
-    <col min="8964" max="8964" width="16.33203125" style="8" customWidth="1"/>
-    <col min="8965" max="8965" width="10" style="8"/>
-    <col min="8966" max="8966" width="50" style="8" customWidth="1"/>
-    <col min="8967" max="9216" width="10" style="8"/>
-    <col min="9217" max="9217" width="14" style="8" customWidth="1"/>
-    <col min="9218" max="9219" width="14.109375" style="8" customWidth="1"/>
-    <col min="9220" max="9220" width="16.33203125" style="8" customWidth="1"/>
-    <col min="9221" max="9221" width="10" style="8"/>
-    <col min="9222" max="9222" width="50" style="8" customWidth="1"/>
-    <col min="9223" max="9472" width="10" style="8"/>
-    <col min="9473" max="9473" width="14" style="8" customWidth="1"/>
-    <col min="9474" max="9475" width="14.109375" style="8" customWidth="1"/>
-    <col min="9476" max="9476" width="16.33203125" style="8" customWidth="1"/>
-    <col min="9477" max="9477" width="10" style="8"/>
-    <col min="9478" max="9478" width="50" style="8" customWidth="1"/>
-    <col min="9479" max="9728" width="10" style="8"/>
-    <col min="9729" max="9729" width="14" style="8" customWidth="1"/>
-    <col min="9730" max="9731" width="14.109375" style="8" customWidth="1"/>
-    <col min="9732" max="9732" width="16.33203125" style="8" customWidth="1"/>
-    <col min="9733" max="9733" width="10" style="8"/>
-    <col min="9734" max="9734" width="50" style="8" customWidth="1"/>
-    <col min="9735" max="9984" width="10" style="8"/>
-    <col min="9985" max="9985" width="14" style="8" customWidth="1"/>
-    <col min="9986" max="9987" width="14.109375" style="8" customWidth="1"/>
-    <col min="9988" max="9988" width="16.33203125" style="8" customWidth="1"/>
-    <col min="9989" max="9989" width="10" style="8"/>
-    <col min="9990" max="9990" width="50" style="8" customWidth="1"/>
-    <col min="9991" max="10240" width="10" style="8"/>
-    <col min="10241" max="10241" width="14" style="8" customWidth="1"/>
-    <col min="10242" max="10243" width="14.109375" style="8" customWidth="1"/>
-    <col min="10244" max="10244" width="16.33203125" style="8" customWidth="1"/>
-    <col min="10245" max="10245" width="10" style="8"/>
-    <col min="10246" max="10246" width="50" style="8" customWidth="1"/>
-    <col min="10247" max="10496" width="10" style="8"/>
-    <col min="10497" max="10497" width="14" style="8" customWidth="1"/>
-    <col min="10498" max="10499" width="14.109375" style="8" customWidth="1"/>
-    <col min="10500" max="10500" width="16.33203125" style="8" customWidth="1"/>
-    <col min="10501" max="10501" width="10" style="8"/>
-    <col min="10502" max="10502" width="50" style="8" customWidth="1"/>
-    <col min="10503" max="10752" width="10" style="8"/>
-    <col min="10753" max="10753" width="14" style="8" customWidth="1"/>
-    <col min="10754" max="10755" width="14.109375" style="8" customWidth="1"/>
-    <col min="10756" max="10756" width="16.33203125" style="8" customWidth="1"/>
-    <col min="10757" max="10757" width="10" style="8"/>
-    <col min="10758" max="10758" width="50" style="8" customWidth="1"/>
-    <col min="10759" max="11008" width="10" style="8"/>
-    <col min="11009" max="11009" width="14" style="8" customWidth="1"/>
-    <col min="11010" max="11011" width="14.109375" style="8" customWidth="1"/>
-    <col min="11012" max="11012" width="16.33203125" style="8" customWidth="1"/>
-    <col min="11013" max="11013" width="10" style="8"/>
-    <col min="11014" max="11014" width="50" style="8" customWidth="1"/>
-    <col min="11015" max="11264" width="10" style="8"/>
-    <col min="11265" max="11265" width="14" style="8" customWidth="1"/>
-    <col min="11266" max="11267" width="14.109375" style="8" customWidth="1"/>
-    <col min="11268" max="11268" width="16.33203125" style="8" customWidth="1"/>
-    <col min="11269" max="11269" width="10" style="8"/>
-    <col min="11270" max="11270" width="50" style="8" customWidth="1"/>
-    <col min="11271" max="11520" width="10" style="8"/>
-    <col min="11521" max="11521" width="14" style="8" customWidth="1"/>
-    <col min="11522" max="11523" width="14.109375" style="8" customWidth="1"/>
-    <col min="11524" max="11524" width="16.33203125" style="8" customWidth="1"/>
-    <col min="11525" max="11525" width="10" style="8"/>
-    <col min="11526" max="11526" width="50" style="8" customWidth="1"/>
-    <col min="11527" max="11776" width="10" style="8"/>
-    <col min="11777" max="11777" width="14" style="8" customWidth="1"/>
-    <col min="11778" max="11779" width="14.109375" style="8" customWidth="1"/>
-    <col min="11780" max="11780" width="16.33203125" style="8" customWidth="1"/>
-    <col min="11781" max="11781" width="10" style="8"/>
-    <col min="11782" max="11782" width="50" style="8" customWidth="1"/>
-    <col min="11783" max="12032" width="10" style="8"/>
-    <col min="12033" max="12033" width="14" style="8" customWidth="1"/>
-    <col min="12034" max="12035" width="14.109375" style="8" customWidth="1"/>
-    <col min="12036" max="12036" width="16.33203125" style="8" customWidth="1"/>
-    <col min="12037" max="12037" width="10" style="8"/>
-    <col min="12038" max="12038" width="50" style="8" customWidth="1"/>
-    <col min="12039" max="12288" width="10" style="8"/>
-    <col min="12289" max="12289" width="14" style="8" customWidth="1"/>
-    <col min="12290" max="12291" width="14.109375" style="8" customWidth="1"/>
-    <col min="12292" max="12292" width="16.33203125" style="8" customWidth="1"/>
-    <col min="12293" max="12293" width="10" style="8"/>
-    <col min="12294" max="12294" width="50" style="8" customWidth="1"/>
-    <col min="12295" max="12544" width="10" style="8"/>
-    <col min="12545" max="12545" width="14" style="8" customWidth="1"/>
-    <col min="12546" max="12547" width="14.109375" style="8" customWidth="1"/>
-    <col min="12548" max="12548" width="16.33203125" style="8" customWidth="1"/>
-    <col min="12549" max="12549" width="10" style="8"/>
-    <col min="12550" max="12550" width="50" style="8" customWidth="1"/>
-    <col min="12551" max="12800" width="10" style="8"/>
-    <col min="12801" max="12801" width="14" style="8" customWidth="1"/>
-    <col min="12802" max="12803" width="14.109375" style="8" customWidth="1"/>
-    <col min="12804" max="12804" width="16.33203125" style="8" customWidth="1"/>
-    <col min="12805" max="12805" width="10" style="8"/>
-    <col min="12806" max="12806" width="50" style="8" customWidth="1"/>
-    <col min="12807" max="13056" width="10" style="8"/>
-    <col min="13057" max="13057" width="14" style="8" customWidth="1"/>
-    <col min="13058" max="13059" width="14.109375" style="8" customWidth="1"/>
-    <col min="13060" max="13060" width="16.33203125" style="8" customWidth="1"/>
-    <col min="13061" max="13061" width="10" style="8"/>
-    <col min="13062" max="13062" width="50" style="8" customWidth="1"/>
-    <col min="13063" max="13312" width="10" style="8"/>
-    <col min="13313" max="13313" width="14" style="8" customWidth="1"/>
-    <col min="13314" max="13315" width="14.109375" style="8" customWidth="1"/>
-    <col min="13316" max="13316" width="16.33203125" style="8" customWidth="1"/>
-    <col min="13317" max="13317" width="10" style="8"/>
-    <col min="13318" max="13318" width="50" style="8" customWidth="1"/>
-    <col min="13319" max="13568" width="10" style="8"/>
-    <col min="13569" max="13569" width="14" style="8" customWidth="1"/>
-    <col min="13570" max="13571" width="14.109375" style="8" customWidth="1"/>
-    <col min="13572" max="13572" width="16.33203125" style="8" customWidth="1"/>
-    <col min="13573" max="13573" width="10" style="8"/>
-    <col min="13574" max="13574" width="50" style="8" customWidth="1"/>
-    <col min="13575" max="13824" width="10" style="8"/>
-    <col min="13825" max="13825" width="14" style="8" customWidth="1"/>
-    <col min="13826" max="13827" width="14.109375" style="8" customWidth="1"/>
-    <col min="13828" max="13828" width="16.33203125" style="8" customWidth="1"/>
-    <col min="13829" max="13829" width="10" style="8"/>
-    <col min="13830" max="13830" width="50" style="8" customWidth="1"/>
-    <col min="13831" max="14080" width="10" style="8"/>
-    <col min="14081" max="14081" width="14" style="8" customWidth="1"/>
-    <col min="14082" max="14083" width="14.109375" style="8" customWidth="1"/>
-    <col min="14084" max="14084" width="16.33203125" style="8" customWidth="1"/>
-    <col min="14085" max="14085" width="10" style="8"/>
-    <col min="14086" max="14086" width="50" style="8" customWidth="1"/>
-    <col min="14087" max="14336" width="10" style="8"/>
-    <col min="14337" max="14337" width="14" style="8" customWidth="1"/>
-    <col min="14338" max="14339" width="14.109375" style="8" customWidth="1"/>
-    <col min="14340" max="14340" width="16.33203125" style="8" customWidth="1"/>
-    <col min="14341" max="14341" width="10" style="8"/>
-    <col min="14342" max="14342" width="50" style="8" customWidth="1"/>
-    <col min="14343" max="14592" width="10" style="8"/>
-    <col min="14593" max="14593" width="14" style="8" customWidth="1"/>
-    <col min="14594" max="14595" width="14.109375" style="8" customWidth="1"/>
-    <col min="14596" max="14596" width="16.33203125" style="8" customWidth="1"/>
-    <col min="14597" max="14597" width="10" style="8"/>
-    <col min="14598" max="14598" width="50" style="8" customWidth="1"/>
-    <col min="14599" max="14848" width="10" style="8"/>
-    <col min="14849" max="14849" width="14" style="8" customWidth="1"/>
-    <col min="14850" max="14851" width="14.109375" style="8" customWidth="1"/>
-    <col min="14852" max="14852" width="16.33203125" style="8" customWidth="1"/>
-    <col min="14853" max="14853" width="10" style="8"/>
-    <col min="14854" max="14854" width="50" style="8" customWidth="1"/>
-    <col min="14855" max="15104" width="10" style="8"/>
-    <col min="15105" max="15105" width="14" style="8" customWidth="1"/>
-    <col min="15106" max="15107" width="14.109375" style="8" customWidth="1"/>
-    <col min="15108" max="15108" width="16.33203125" style="8" customWidth="1"/>
-    <col min="15109" max="15109" width="10" style="8"/>
-    <col min="15110" max="15110" width="50" style="8" customWidth="1"/>
-    <col min="15111" max="15360" width="10" style="8"/>
-    <col min="15361" max="15361" width="14" style="8" customWidth="1"/>
-    <col min="15362" max="15363" width="14.109375" style="8" customWidth="1"/>
-    <col min="15364" max="15364" width="16.33203125" style="8" customWidth="1"/>
-    <col min="15365" max="15365" width="10" style="8"/>
-    <col min="15366" max="15366" width="50" style="8" customWidth="1"/>
-    <col min="15367" max="15616" width="10" style="8"/>
-    <col min="15617" max="15617" width="14" style="8" customWidth="1"/>
-    <col min="15618" max="15619" width="14.109375" style="8" customWidth="1"/>
-    <col min="15620" max="15620" width="16.33203125" style="8" customWidth="1"/>
-    <col min="15621" max="15621" width="10" style="8"/>
-    <col min="15622" max="15622" width="50" style="8" customWidth="1"/>
-    <col min="15623" max="15872" width="10" style="8"/>
-    <col min="15873" max="15873" width="14" style="8" customWidth="1"/>
-    <col min="15874" max="15875" width="14.109375" style="8" customWidth="1"/>
-    <col min="15876" max="15876" width="16.33203125" style="8" customWidth="1"/>
-    <col min="15877" max="15877" width="10" style="8"/>
-    <col min="15878" max="15878" width="50" style="8" customWidth="1"/>
-    <col min="15879" max="16128" width="10" style="8"/>
-    <col min="16129" max="16129" width="14" style="8" customWidth="1"/>
-    <col min="16130" max="16131" width="14.109375" style="8" customWidth="1"/>
-    <col min="16132" max="16132" width="16.33203125" style="8" customWidth="1"/>
-    <col min="16133" max="16133" width="10" style="8"/>
-    <col min="16134" max="16134" width="50" style="8" customWidth="1"/>
-    <col min="16135" max="16384" width="10" style="8"/>
+    <col min="1" max="1" width="17" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="31.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="50" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9"/>
+    <col min="12" max="256" width="10" style="6"/>
+    <col min="257" max="257" width="14" style="6" customWidth="1"/>
+    <col min="258" max="259" width="14.109375" style="6" customWidth="1"/>
+    <col min="260" max="260" width="16.33203125" style="6" customWidth="1"/>
+    <col min="261" max="261" width="10" style="6"/>
+    <col min="262" max="262" width="50" style="6" customWidth="1"/>
+    <col min="263" max="512" width="10" style="6"/>
+    <col min="513" max="513" width="14" style="6" customWidth="1"/>
+    <col min="514" max="515" width="14.109375" style="6" customWidth="1"/>
+    <col min="516" max="516" width="16.33203125" style="6" customWidth="1"/>
+    <col min="517" max="517" width="10" style="6"/>
+    <col min="518" max="518" width="50" style="6" customWidth="1"/>
+    <col min="519" max="768" width="10" style="6"/>
+    <col min="769" max="769" width="14" style="6" customWidth="1"/>
+    <col min="770" max="771" width="14.109375" style="6" customWidth="1"/>
+    <col min="772" max="772" width="16.33203125" style="6" customWidth="1"/>
+    <col min="773" max="773" width="10" style="6"/>
+    <col min="774" max="774" width="50" style="6" customWidth="1"/>
+    <col min="775" max="1024" width="10" style="6"/>
+    <col min="1025" max="1025" width="14" style="6" customWidth="1"/>
+    <col min="1026" max="1027" width="14.109375" style="6" customWidth="1"/>
+    <col min="1028" max="1028" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1029" max="1029" width="10" style="6"/>
+    <col min="1030" max="1030" width="50" style="6" customWidth="1"/>
+    <col min="1031" max="1280" width="10" style="6"/>
+    <col min="1281" max="1281" width="14" style="6" customWidth="1"/>
+    <col min="1282" max="1283" width="14.109375" style="6" customWidth="1"/>
+    <col min="1284" max="1284" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1285" max="1285" width="10" style="6"/>
+    <col min="1286" max="1286" width="50" style="6" customWidth="1"/>
+    <col min="1287" max="1536" width="10" style="6"/>
+    <col min="1537" max="1537" width="14" style="6" customWidth="1"/>
+    <col min="1538" max="1539" width="14.109375" style="6" customWidth="1"/>
+    <col min="1540" max="1540" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1541" max="1541" width="10" style="6"/>
+    <col min="1542" max="1542" width="50" style="6" customWidth="1"/>
+    <col min="1543" max="1792" width="10" style="6"/>
+    <col min="1793" max="1793" width="14" style="6" customWidth="1"/>
+    <col min="1794" max="1795" width="14.109375" style="6" customWidth="1"/>
+    <col min="1796" max="1796" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1797" max="1797" width="10" style="6"/>
+    <col min="1798" max="1798" width="50" style="6" customWidth="1"/>
+    <col min="1799" max="2048" width="10" style="6"/>
+    <col min="2049" max="2049" width="14" style="6" customWidth="1"/>
+    <col min="2050" max="2051" width="14.109375" style="6" customWidth="1"/>
+    <col min="2052" max="2052" width="16.33203125" style="6" customWidth="1"/>
+    <col min="2053" max="2053" width="10" style="6"/>
+    <col min="2054" max="2054" width="50" style="6" customWidth="1"/>
+    <col min="2055" max="2304" width="10" style="6"/>
+    <col min="2305" max="2305" width="14" style="6" customWidth="1"/>
+    <col min="2306" max="2307" width="14.109375" style="6" customWidth="1"/>
+    <col min="2308" max="2308" width="16.33203125" style="6" customWidth="1"/>
+    <col min="2309" max="2309" width="10" style="6"/>
+    <col min="2310" max="2310" width="50" style="6" customWidth="1"/>
+    <col min="2311" max="2560" width="10" style="6"/>
+    <col min="2561" max="2561" width="14" style="6" customWidth="1"/>
+    <col min="2562" max="2563" width="14.109375" style="6" customWidth="1"/>
+    <col min="2564" max="2564" width="16.33203125" style="6" customWidth="1"/>
+    <col min="2565" max="2565" width="10" style="6"/>
+    <col min="2566" max="2566" width="50" style="6" customWidth="1"/>
+    <col min="2567" max="2816" width="10" style="6"/>
+    <col min="2817" max="2817" width="14" style="6" customWidth="1"/>
+    <col min="2818" max="2819" width="14.109375" style="6" customWidth="1"/>
+    <col min="2820" max="2820" width="16.33203125" style="6" customWidth="1"/>
+    <col min="2821" max="2821" width="10" style="6"/>
+    <col min="2822" max="2822" width="50" style="6" customWidth="1"/>
+    <col min="2823" max="3072" width="10" style="6"/>
+    <col min="3073" max="3073" width="14" style="6" customWidth="1"/>
+    <col min="3074" max="3075" width="14.109375" style="6" customWidth="1"/>
+    <col min="3076" max="3076" width="16.33203125" style="6" customWidth="1"/>
+    <col min="3077" max="3077" width="10" style="6"/>
+    <col min="3078" max="3078" width="50" style="6" customWidth="1"/>
+    <col min="3079" max="3328" width="10" style="6"/>
+    <col min="3329" max="3329" width="14" style="6" customWidth="1"/>
+    <col min="3330" max="3331" width="14.109375" style="6" customWidth="1"/>
+    <col min="3332" max="3332" width="16.33203125" style="6" customWidth="1"/>
+    <col min="3333" max="3333" width="10" style="6"/>
+    <col min="3334" max="3334" width="50" style="6" customWidth="1"/>
+    <col min="3335" max="3584" width="10" style="6"/>
+    <col min="3585" max="3585" width="14" style="6" customWidth="1"/>
+    <col min="3586" max="3587" width="14.109375" style="6" customWidth="1"/>
+    <col min="3588" max="3588" width="16.33203125" style="6" customWidth="1"/>
+    <col min="3589" max="3589" width="10" style="6"/>
+    <col min="3590" max="3590" width="50" style="6" customWidth="1"/>
+    <col min="3591" max="3840" width="10" style="6"/>
+    <col min="3841" max="3841" width="14" style="6" customWidth="1"/>
+    <col min="3842" max="3843" width="14.109375" style="6" customWidth="1"/>
+    <col min="3844" max="3844" width="16.33203125" style="6" customWidth="1"/>
+    <col min="3845" max="3845" width="10" style="6"/>
+    <col min="3846" max="3846" width="50" style="6" customWidth="1"/>
+    <col min="3847" max="4096" width="10" style="6"/>
+    <col min="4097" max="4097" width="14" style="6" customWidth="1"/>
+    <col min="4098" max="4099" width="14.109375" style="6" customWidth="1"/>
+    <col min="4100" max="4100" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4101" max="4101" width="10" style="6"/>
+    <col min="4102" max="4102" width="50" style="6" customWidth="1"/>
+    <col min="4103" max="4352" width="10" style="6"/>
+    <col min="4353" max="4353" width="14" style="6" customWidth="1"/>
+    <col min="4354" max="4355" width="14.109375" style="6" customWidth="1"/>
+    <col min="4356" max="4356" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4357" max="4357" width="10" style="6"/>
+    <col min="4358" max="4358" width="50" style="6" customWidth="1"/>
+    <col min="4359" max="4608" width="10" style="6"/>
+    <col min="4609" max="4609" width="14" style="6" customWidth="1"/>
+    <col min="4610" max="4611" width="14.109375" style="6" customWidth="1"/>
+    <col min="4612" max="4612" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4613" max="4613" width="10" style="6"/>
+    <col min="4614" max="4614" width="50" style="6" customWidth="1"/>
+    <col min="4615" max="4864" width="10" style="6"/>
+    <col min="4865" max="4865" width="14" style="6" customWidth="1"/>
+    <col min="4866" max="4867" width="14.109375" style="6" customWidth="1"/>
+    <col min="4868" max="4868" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4869" max="4869" width="10" style="6"/>
+    <col min="4870" max="4870" width="50" style="6" customWidth="1"/>
+    <col min="4871" max="5120" width="10" style="6"/>
+    <col min="5121" max="5121" width="14" style="6" customWidth="1"/>
+    <col min="5122" max="5123" width="14.109375" style="6" customWidth="1"/>
+    <col min="5124" max="5124" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5125" max="5125" width="10" style="6"/>
+    <col min="5126" max="5126" width="50" style="6" customWidth="1"/>
+    <col min="5127" max="5376" width="10" style="6"/>
+    <col min="5377" max="5377" width="14" style="6" customWidth="1"/>
+    <col min="5378" max="5379" width="14.109375" style="6" customWidth="1"/>
+    <col min="5380" max="5380" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5381" max="5381" width="10" style="6"/>
+    <col min="5382" max="5382" width="50" style="6" customWidth="1"/>
+    <col min="5383" max="5632" width="10" style="6"/>
+    <col min="5633" max="5633" width="14" style="6" customWidth="1"/>
+    <col min="5634" max="5635" width="14.109375" style="6" customWidth="1"/>
+    <col min="5636" max="5636" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5637" max="5637" width="10" style="6"/>
+    <col min="5638" max="5638" width="50" style="6" customWidth="1"/>
+    <col min="5639" max="5888" width="10" style="6"/>
+    <col min="5889" max="5889" width="14" style="6" customWidth="1"/>
+    <col min="5890" max="5891" width="14.109375" style="6" customWidth="1"/>
+    <col min="5892" max="5892" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5893" max="5893" width="10" style="6"/>
+    <col min="5894" max="5894" width="50" style="6" customWidth="1"/>
+    <col min="5895" max="6144" width="10" style="6"/>
+    <col min="6145" max="6145" width="14" style="6" customWidth="1"/>
+    <col min="6146" max="6147" width="14.109375" style="6" customWidth="1"/>
+    <col min="6148" max="6148" width="16.33203125" style="6" customWidth="1"/>
+    <col min="6149" max="6149" width="10" style="6"/>
+    <col min="6150" max="6150" width="50" style="6" customWidth="1"/>
+    <col min="6151" max="6400" width="10" style="6"/>
+    <col min="6401" max="6401" width="14" style="6" customWidth="1"/>
+    <col min="6402" max="6403" width="14.109375" style="6" customWidth="1"/>
+    <col min="6404" max="6404" width="16.33203125" style="6" customWidth="1"/>
+    <col min="6405" max="6405" width="10" style="6"/>
+    <col min="6406" max="6406" width="50" style="6" customWidth="1"/>
+    <col min="6407" max="6656" width="10" style="6"/>
+    <col min="6657" max="6657" width="14" style="6" customWidth="1"/>
+    <col min="6658" max="6659" width="14.109375" style="6" customWidth="1"/>
+    <col min="6660" max="6660" width="16.33203125" style="6" customWidth="1"/>
+    <col min="6661" max="6661" width="10" style="6"/>
+    <col min="6662" max="6662" width="50" style="6" customWidth="1"/>
+    <col min="6663" max="6912" width="10" style="6"/>
+    <col min="6913" max="6913" width="14" style="6" customWidth="1"/>
+    <col min="6914" max="6915" width="14.109375" style="6" customWidth="1"/>
+    <col min="6916" max="6916" width="16.33203125" style="6" customWidth="1"/>
+    <col min="6917" max="6917" width="10" style="6"/>
+    <col min="6918" max="6918" width="50" style="6" customWidth="1"/>
+    <col min="6919" max="7168" width="10" style="6"/>
+    <col min="7169" max="7169" width="14" style="6" customWidth="1"/>
+    <col min="7170" max="7171" width="14.109375" style="6" customWidth="1"/>
+    <col min="7172" max="7172" width="16.33203125" style="6" customWidth="1"/>
+    <col min="7173" max="7173" width="10" style="6"/>
+    <col min="7174" max="7174" width="50" style="6" customWidth="1"/>
+    <col min="7175" max="7424" width="10" style="6"/>
+    <col min="7425" max="7425" width="14" style="6" customWidth="1"/>
+    <col min="7426" max="7427" width="14.109375" style="6" customWidth="1"/>
+    <col min="7428" max="7428" width="16.33203125" style="6" customWidth="1"/>
+    <col min="7429" max="7429" width="10" style="6"/>
+    <col min="7430" max="7430" width="50" style="6" customWidth="1"/>
+    <col min="7431" max="7680" width="10" style="6"/>
+    <col min="7681" max="7681" width="14" style="6" customWidth="1"/>
+    <col min="7682" max="7683" width="14.109375" style="6" customWidth="1"/>
+    <col min="7684" max="7684" width="16.33203125" style="6" customWidth="1"/>
+    <col min="7685" max="7685" width="10" style="6"/>
+    <col min="7686" max="7686" width="50" style="6" customWidth="1"/>
+    <col min="7687" max="7936" width="10" style="6"/>
+    <col min="7937" max="7937" width="14" style="6" customWidth="1"/>
+    <col min="7938" max="7939" width="14.109375" style="6" customWidth="1"/>
+    <col min="7940" max="7940" width="16.33203125" style="6" customWidth="1"/>
+    <col min="7941" max="7941" width="10" style="6"/>
+    <col min="7942" max="7942" width="50" style="6" customWidth="1"/>
+    <col min="7943" max="8192" width="10" style="6"/>
+    <col min="8193" max="8193" width="14" style="6" customWidth="1"/>
+    <col min="8194" max="8195" width="14.109375" style="6" customWidth="1"/>
+    <col min="8196" max="8196" width="16.33203125" style="6" customWidth="1"/>
+    <col min="8197" max="8197" width="10" style="6"/>
+    <col min="8198" max="8198" width="50" style="6" customWidth="1"/>
+    <col min="8199" max="8448" width="10" style="6"/>
+    <col min="8449" max="8449" width="14" style="6" customWidth="1"/>
+    <col min="8450" max="8451" width="14.109375" style="6" customWidth="1"/>
+    <col min="8452" max="8452" width="16.33203125" style="6" customWidth="1"/>
+    <col min="8453" max="8453" width="10" style="6"/>
+    <col min="8454" max="8454" width="50" style="6" customWidth="1"/>
+    <col min="8455" max="8704" width="10" style="6"/>
+    <col min="8705" max="8705" width="14" style="6" customWidth="1"/>
+    <col min="8706" max="8707" width="14.109375" style="6" customWidth="1"/>
+    <col min="8708" max="8708" width="16.33203125" style="6" customWidth="1"/>
+    <col min="8709" max="8709" width="10" style="6"/>
+    <col min="8710" max="8710" width="50" style="6" customWidth="1"/>
+    <col min="8711" max="8960" width="10" style="6"/>
+    <col min="8961" max="8961" width="14" style="6" customWidth="1"/>
+    <col min="8962" max="8963" width="14.109375" style="6" customWidth="1"/>
+    <col min="8964" max="8964" width="16.33203125" style="6" customWidth="1"/>
+    <col min="8965" max="8965" width="10" style="6"/>
+    <col min="8966" max="8966" width="50" style="6" customWidth="1"/>
+    <col min="8967" max="9216" width="10" style="6"/>
+    <col min="9217" max="9217" width="14" style="6" customWidth="1"/>
+    <col min="9218" max="9219" width="14.109375" style="6" customWidth="1"/>
+    <col min="9220" max="9220" width="16.33203125" style="6" customWidth="1"/>
+    <col min="9221" max="9221" width="10" style="6"/>
+    <col min="9222" max="9222" width="50" style="6" customWidth="1"/>
+    <col min="9223" max="9472" width="10" style="6"/>
+    <col min="9473" max="9473" width="14" style="6" customWidth="1"/>
+    <col min="9474" max="9475" width="14.109375" style="6" customWidth="1"/>
+    <col min="9476" max="9476" width="16.33203125" style="6" customWidth="1"/>
+    <col min="9477" max="9477" width="10" style="6"/>
+    <col min="9478" max="9478" width="50" style="6" customWidth="1"/>
+    <col min="9479" max="9728" width="10" style="6"/>
+    <col min="9729" max="9729" width="14" style="6" customWidth="1"/>
+    <col min="9730" max="9731" width="14.109375" style="6" customWidth="1"/>
+    <col min="9732" max="9732" width="16.33203125" style="6" customWidth="1"/>
+    <col min="9733" max="9733" width="10" style="6"/>
+    <col min="9734" max="9734" width="50" style="6" customWidth="1"/>
+    <col min="9735" max="9984" width="10" style="6"/>
+    <col min="9985" max="9985" width="14" style="6" customWidth="1"/>
+    <col min="9986" max="9987" width="14.109375" style="6" customWidth="1"/>
+    <col min="9988" max="9988" width="16.33203125" style="6" customWidth="1"/>
+    <col min="9989" max="9989" width="10" style="6"/>
+    <col min="9990" max="9990" width="50" style="6" customWidth="1"/>
+    <col min="9991" max="10240" width="10" style="6"/>
+    <col min="10241" max="10241" width="14" style="6" customWidth="1"/>
+    <col min="10242" max="10243" width="14.109375" style="6" customWidth="1"/>
+    <col min="10244" max="10244" width="16.33203125" style="6" customWidth="1"/>
+    <col min="10245" max="10245" width="10" style="6"/>
+    <col min="10246" max="10246" width="50" style="6" customWidth="1"/>
+    <col min="10247" max="10496" width="10" style="6"/>
+    <col min="10497" max="10497" width="14" style="6" customWidth="1"/>
+    <col min="10498" max="10499" width="14.109375" style="6" customWidth="1"/>
+    <col min="10500" max="10500" width="16.33203125" style="6" customWidth="1"/>
+    <col min="10501" max="10501" width="10" style="6"/>
+    <col min="10502" max="10502" width="50" style="6" customWidth="1"/>
+    <col min="10503" max="10752" width="10" style="6"/>
+    <col min="10753" max="10753" width="14" style="6" customWidth="1"/>
+    <col min="10754" max="10755" width="14.109375" style="6" customWidth="1"/>
+    <col min="10756" max="10756" width="16.33203125" style="6" customWidth="1"/>
+    <col min="10757" max="10757" width="10" style="6"/>
+    <col min="10758" max="10758" width="50" style="6" customWidth="1"/>
+    <col min="10759" max="11008" width="10" style="6"/>
+    <col min="11009" max="11009" width="14" style="6" customWidth="1"/>
+    <col min="11010" max="11011" width="14.109375" style="6" customWidth="1"/>
+    <col min="11012" max="11012" width="16.33203125" style="6" customWidth="1"/>
+    <col min="11013" max="11013" width="10" style="6"/>
+    <col min="11014" max="11014" width="50" style="6" customWidth="1"/>
+    <col min="11015" max="11264" width="10" style="6"/>
+    <col min="11265" max="11265" width="14" style="6" customWidth="1"/>
+    <col min="11266" max="11267" width="14.109375" style="6" customWidth="1"/>
+    <col min="11268" max="11268" width="16.33203125" style="6" customWidth="1"/>
+    <col min="11269" max="11269" width="10" style="6"/>
+    <col min="11270" max="11270" width="50" style="6" customWidth="1"/>
+    <col min="11271" max="11520" width="10" style="6"/>
+    <col min="11521" max="11521" width="14" style="6" customWidth="1"/>
+    <col min="11522" max="11523" width="14.109375" style="6" customWidth="1"/>
+    <col min="11524" max="11524" width="16.33203125" style="6" customWidth="1"/>
+    <col min="11525" max="11525" width="10" style="6"/>
+    <col min="11526" max="11526" width="50" style="6" customWidth="1"/>
+    <col min="11527" max="11776" width="10" style="6"/>
+    <col min="11777" max="11777" width="14" style="6" customWidth="1"/>
+    <col min="11778" max="11779" width="14.109375" style="6" customWidth="1"/>
+    <col min="11780" max="11780" width="16.33203125" style="6" customWidth="1"/>
+    <col min="11781" max="11781" width="10" style="6"/>
+    <col min="11782" max="11782" width="50" style="6" customWidth="1"/>
+    <col min="11783" max="12032" width="10" style="6"/>
+    <col min="12033" max="12033" width="14" style="6" customWidth="1"/>
+    <col min="12034" max="12035" width="14.109375" style="6" customWidth="1"/>
+    <col min="12036" max="12036" width="16.33203125" style="6" customWidth="1"/>
+    <col min="12037" max="12037" width="10" style="6"/>
+    <col min="12038" max="12038" width="50" style="6" customWidth="1"/>
+    <col min="12039" max="12288" width="10" style="6"/>
+    <col min="12289" max="12289" width="14" style="6" customWidth="1"/>
+    <col min="12290" max="12291" width="14.109375" style="6" customWidth="1"/>
+    <col min="12292" max="12292" width="16.33203125" style="6" customWidth="1"/>
+    <col min="12293" max="12293" width="10" style="6"/>
+    <col min="12294" max="12294" width="50" style="6" customWidth="1"/>
+    <col min="12295" max="12544" width="10" style="6"/>
+    <col min="12545" max="12545" width="14" style="6" customWidth="1"/>
+    <col min="12546" max="12547" width="14.109375" style="6" customWidth="1"/>
+    <col min="12548" max="12548" width="16.33203125" style="6" customWidth="1"/>
+    <col min="12549" max="12549" width="10" style="6"/>
+    <col min="12550" max="12550" width="50" style="6" customWidth="1"/>
+    <col min="12551" max="12800" width="10" style="6"/>
+    <col min="12801" max="12801" width="14" style="6" customWidth="1"/>
+    <col min="12802" max="12803" width="14.109375" style="6" customWidth="1"/>
+    <col min="12804" max="12804" width="16.33203125" style="6" customWidth="1"/>
+    <col min="12805" max="12805" width="10" style="6"/>
+    <col min="12806" max="12806" width="50" style="6" customWidth="1"/>
+    <col min="12807" max="13056" width="10" style="6"/>
+    <col min="13057" max="13057" width="14" style="6" customWidth="1"/>
+    <col min="13058" max="13059" width="14.109375" style="6" customWidth="1"/>
+    <col min="13060" max="13060" width="16.33203125" style="6" customWidth="1"/>
+    <col min="13061" max="13061" width="10" style="6"/>
+    <col min="13062" max="13062" width="50" style="6" customWidth="1"/>
+    <col min="13063" max="13312" width="10" style="6"/>
+    <col min="13313" max="13313" width="14" style="6" customWidth="1"/>
+    <col min="13314" max="13315" width="14.109375" style="6" customWidth="1"/>
+    <col min="13316" max="13316" width="16.33203125" style="6" customWidth="1"/>
+    <col min="13317" max="13317" width="10" style="6"/>
+    <col min="13318" max="13318" width="50" style="6" customWidth="1"/>
+    <col min="13319" max="13568" width="10" style="6"/>
+    <col min="13569" max="13569" width="14" style="6" customWidth="1"/>
+    <col min="13570" max="13571" width="14.109375" style="6" customWidth="1"/>
+    <col min="13572" max="13572" width="16.33203125" style="6" customWidth="1"/>
+    <col min="13573" max="13573" width="10" style="6"/>
+    <col min="13574" max="13574" width="50" style="6" customWidth="1"/>
+    <col min="13575" max="13824" width="10" style="6"/>
+    <col min="13825" max="13825" width="14" style="6" customWidth="1"/>
+    <col min="13826" max="13827" width="14.109375" style="6" customWidth="1"/>
+    <col min="13828" max="13828" width="16.33203125" style="6" customWidth="1"/>
+    <col min="13829" max="13829" width="10" style="6"/>
+    <col min="13830" max="13830" width="50" style="6" customWidth="1"/>
+    <col min="13831" max="14080" width="10" style="6"/>
+    <col min="14081" max="14081" width="14" style="6" customWidth="1"/>
+    <col min="14082" max="14083" width="14.109375" style="6" customWidth="1"/>
+    <col min="14084" max="14084" width="16.33203125" style="6" customWidth="1"/>
+    <col min="14085" max="14085" width="10" style="6"/>
+    <col min="14086" max="14086" width="50" style="6" customWidth="1"/>
+    <col min="14087" max="14336" width="10" style="6"/>
+    <col min="14337" max="14337" width="14" style="6" customWidth="1"/>
+    <col min="14338" max="14339" width="14.109375" style="6" customWidth="1"/>
+    <col min="14340" max="14340" width="16.33203125" style="6" customWidth="1"/>
+    <col min="14341" max="14341" width="10" style="6"/>
+    <col min="14342" max="14342" width="50" style="6" customWidth="1"/>
+    <col min="14343" max="14592" width="10" style="6"/>
+    <col min="14593" max="14593" width="14" style="6" customWidth="1"/>
+    <col min="14594" max="14595" width="14.109375" style="6" customWidth="1"/>
+    <col min="14596" max="14596" width="16.33203125" style="6" customWidth="1"/>
+    <col min="14597" max="14597" width="10" style="6"/>
+    <col min="14598" max="14598" width="50" style="6" customWidth="1"/>
+    <col min="14599" max="14848" width="10" style="6"/>
+    <col min="14849" max="14849" width="14" style="6" customWidth="1"/>
+    <col min="14850" max="14851" width="14.109375" style="6" customWidth="1"/>
+    <col min="14852" max="14852" width="16.33203125" style="6" customWidth="1"/>
+    <col min="14853" max="14853" width="10" style="6"/>
+    <col min="14854" max="14854" width="50" style="6" customWidth="1"/>
+    <col min="14855" max="15104" width="10" style="6"/>
+    <col min="15105" max="15105" width="14" style="6" customWidth="1"/>
+    <col min="15106" max="15107" width="14.109375" style="6" customWidth="1"/>
+    <col min="15108" max="15108" width="16.33203125" style="6" customWidth="1"/>
+    <col min="15109" max="15109" width="10" style="6"/>
+    <col min="15110" max="15110" width="50" style="6" customWidth="1"/>
+    <col min="15111" max="15360" width="10" style="6"/>
+    <col min="15361" max="15361" width="14" style="6" customWidth="1"/>
+    <col min="15362" max="15363" width="14.109375" style="6" customWidth="1"/>
+    <col min="15364" max="15364" width="16.33203125" style="6" customWidth="1"/>
+    <col min="15365" max="15365" width="10" style="6"/>
+    <col min="15366" max="15366" width="50" style="6" customWidth="1"/>
+    <col min="15367" max="15616" width="10" style="6"/>
+    <col min="15617" max="15617" width="14" style="6" customWidth="1"/>
+    <col min="15618" max="15619" width="14.109375" style="6" customWidth="1"/>
+    <col min="15620" max="15620" width="16.33203125" style="6" customWidth="1"/>
+    <col min="15621" max="15621" width="10" style="6"/>
+    <col min="15622" max="15622" width="50" style="6" customWidth="1"/>
+    <col min="15623" max="15872" width="10" style="6"/>
+    <col min="15873" max="15873" width="14" style="6" customWidth="1"/>
+    <col min="15874" max="15875" width="14.109375" style="6" customWidth="1"/>
+    <col min="15876" max="15876" width="16.33203125" style="6" customWidth="1"/>
+    <col min="15877" max="15877" width="10" style="6"/>
+    <col min="15878" max="15878" width="50" style="6" customWidth="1"/>
+    <col min="15879" max="16128" width="10" style="6"/>
+    <col min="16129" max="16129" width="14" style="6" customWidth="1"/>
+    <col min="16130" max="16131" width="14.109375" style="6" customWidth="1"/>
+    <col min="16132" max="16132" width="16.33203125" style="6" customWidth="1"/>
+    <col min="16133" max="16133" width="10" style="6"/>
+    <col min="16134" max="16134" width="50" style="6" customWidth="1"/>
+    <col min="16135" max="16384" width="10" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1012,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1020,284 +1048,295 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、提示删除成功                  2、分组管理无此分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,9 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xtgl_fz_tj004</t>
-  </si>
-  <si>
     <t xml:space="preserve">1、输入分组名称                                                       2、选择账号类型-管理员账号，保存                                                       </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">1、输入不一样的分组名称                                                       2、选择账号类型-子账号，保存                         3、进行分组权限设置，保存                                                      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、已登陆管理员账号                                                   2、系统正常               3、网络正常                    4、至少有一个任意分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,10 +133,6 @@
   <si>
     <t>添加/编辑同名称的分组是否成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除分组是否成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试需求</t>
@@ -606,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:K1"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1011,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1040,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1049,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>13</v>
@@ -1075,10 +1056,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -1087,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -1105,13 +1086,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -1120,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -1138,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
@@ -1150,44 +1131,24 @@
         <v>18</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>36</v>
-      </c>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,19 +1281,6 @@
       <c r="J16" s="8"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:K1"/>
